--- a/data/trans_orig/Q45B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Edad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4251</v>
+        <v>4610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001715537876968872</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008604733214097699</v>
+        <v>0.009329998721848493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -767,16 +767,16 @@
         <v>737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7085</v>
+        <v>6659</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005475601223542855</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001577396112704883</v>
+        <v>0.001576589862004289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01515616348722305</v>
+        <v>0.01424453864119788</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -785,19 +785,19 @@
         <v>3407</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>877</v>
+        <v>847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7979</v>
+        <v>8583</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003543610457745247</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0009116731534666943</v>
+        <v>0.0008811146180924891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00829797176040383</v>
+        <v>0.008926062746491863</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>10305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5161</v>
+        <v>4883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18658</v>
+        <v>18481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02085767790411157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0104450454792305</v>
+        <v>0.009883277597701568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03776478085065831</v>
+        <v>0.03740688307767549</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>59</v>
@@ -835,19 +835,19 @@
         <v>55559</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43141</v>
+        <v>43893</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69788</v>
+        <v>70144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1188453665635745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09228144833704095</v>
+        <v>0.0938909653211679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1492827734533891</v>
+        <v>0.1500441429307488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -856,19 +856,19 @@
         <v>65864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52526</v>
+        <v>52315</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82346</v>
+        <v>82555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06849746223254076</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0546260545589267</v>
+        <v>0.05440707420245387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08563880327269667</v>
+        <v>0.08585614405003189</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>482911</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>474585</v>
+        <v>474252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>488245</v>
+        <v>488464</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9774267842189196</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9605741257233744</v>
+        <v>0.9599001729275141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9882217668435384</v>
+        <v>0.9886655793883627</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>427</v>
@@ -906,19 +906,19 @@
         <v>409370</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>394904</v>
+        <v>394628</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>421984</v>
+        <v>420802</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8756790322128827</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8447346460155607</v>
+        <v>0.844142895508202</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9026604214098206</v>
+        <v>0.9001315584853976</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>915</v>
@@ -927,19 +927,19 @@
         <v>892282</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>874146</v>
+        <v>875255</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>905100</v>
+        <v>906300</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.927958927309714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.909098345112671</v>
+        <v>0.9102515697340703</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.941289712768109</v>
+        <v>0.942537496305312</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>5784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1512</v>
+        <v>1537</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14179</v>
+        <v>15668</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007863916932752072</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002055527891169648</v>
+        <v>0.002090184704816867</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01927864925135625</v>
+        <v>0.02130305991698981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1052,19 +1052,19 @@
         <v>4862</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1877</v>
+        <v>1753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10669</v>
+        <v>10556</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007772266369733434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003001124562346913</v>
+        <v>0.002801846683449901</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01705644810471058</v>
+        <v>0.01687570375054644</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1073,19 +1073,19 @@
         <v>10645</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5017</v>
+        <v>5548</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19988</v>
+        <v>20674</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007821795256928556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003686549782027273</v>
+        <v>0.004076668194031401</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01468675581821635</v>
+        <v>0.01519068820273932</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>21046</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13761</v>
+        <v>13273</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32010</v>
+        <v>31939</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02861496744263635</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01870985871098142</v>
+        <v>0.01804699957025487</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04352241555703887</v>
+        <v>0.04342602545576184</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>106</v>
@@ -1123,19 +1123,19 @@
         <v>111250</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>90792</v>
+        <v>93055</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>130651</v>
+        <v>132077</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1778595155571087</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1451530462644289</v>
+        <v>0.1487708233396237</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2088760569453667</v>
+        <v>0.2111569862474104</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>127</v>
@@ -1144,19 +1144,19 @@
         <v>132296</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>111012</v>
+        <v>111784</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>154414</v>
+        <v>155112</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0972062588330295</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08156738608808144</v>
+        <v>0.08213499693420818</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1134579506842692</v>
+        <v>0.1139705387546583</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>708659</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>696172</v>
+        <v>695423</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>717781</v>
+        <v>717916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9635211156246116</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9465425273436244</v>
+        <v>0.9455249184274411</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9759233278354017</v>
+        <v>0.9761072695336651</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>480</v>
@@ -1194,19 +1194,19 @@
         <v>509382</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>487998</v>
+        <v>489278</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>529466</v>
+        <v>529211</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8143682180731578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7801801224214938</v>
+        <v>0.7822271522450337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.846476754260397</v>
+        <v>0.8460691516567931</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1158</v>
@@ -1215,19 +1215,19 @@
         <v>1218041</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1193528</v>
+        <v>1194782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1239691</v>
+        <v>1239727</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8949719459100419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8769606530322548</v>
+        <v>0.8778825359484631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9108796386102225</v>
+        <v>0.9109062740390884</v>
       </c>
     </row>
     <row r="11">
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6778</v>
+        <v>6611</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003108825580474725</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01061211117577509</v>
+        <v>0.010350505049256</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1340,19 +1340,19 @@
         <v>3109</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1012</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8352</v>
+        <v>8263</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.004506776809789824</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001467530247464714</v>
+        <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01210911253371975</v>
+        <v>0.01197985642214047</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1361,19 +1361,19 @@
         <v>5094</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1741</v>
+        <v>1890</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10933</v>
+        <v>11993</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003834676405539938</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001310843467820262</v>
+        <v>0.001422671054156241</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.00822992259711155</v>
+        <v>0.009028350908357685</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>11336</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5691</v>
+        <v>6121</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19494</v>
+        <v>18746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01774913389052563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008910433560915946</v>
+        <v>0.009583375553907742</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03052244249709362</v>
+        <v>0.02935211461495966</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1411,19 +1411,19 @@
         <v>44637</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33401</v>
+        <v>32301</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58765</v>
+        <v>59019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06471487136374389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04842467492927669</v>
+        <v>0.04683048338794462</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08519864676389299</v>
+        <v>0.08556643041901264</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -1432,19 +1432,19 @@
         <v>55973</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42641</v>
+        <v>43214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74319</v>
+        <v>73289</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0421349054252261</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03209924867363419</v>
+        <v>0.03253033727198706</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05594540327853078</v>
+        <v>0.05517041178141393</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>625347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>617315</v>
+        <v>618340</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>631959</v>
+        <v>631263</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9791420405289997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9665662620550125</v>
+        <v>0.9681713713576821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.989495133633936</v>
+        <v>0.9884047854478965</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>614</v>
@@ -1482,19 +1482,19 @@
         <v>641999</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>626879</v>
+        <v>627549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>653513</v>
+        <v>654665</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9307783518264663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9088580609529618</v>
+        <v>0.9098287323142616</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9474720253094248</v>
+        <v>0.949141863297264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1213</v>
@@ -1503,19 +1503,19 @@
         <v>1267345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1249409</v>
+        <v>1249612</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1280467</v>
+        <v>1281193</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.954030418169234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9405279417977633</v>
+        <v>0.9406811694976581</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9639077090885797</v>
+        <v>0.9644547143033382</v>
       </c>
     </row>
     <row r="15">
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6902</v>
+        <v>6683</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003787170532752644</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01338556286146351</v>
+        <v>0.01295994328548236</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6962</v>
+        <v>6974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001887171286254075</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006728235489063684</v>
+        <v>0.006739897213134238</v>
       </c>
     </row>
     <row r="17">
@@ -1670,19 +1670,19 @@
         <v>6314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2532</v>
+        <v>1840</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14607</v>
+        <v>14912</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01216206558787073</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0048780129097853</v>
+        <v>0.003545051166998236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02813594558744695</v>
+        <v>0.02872435107303874</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -1691,19 +1691,19 @@
         <v>23570</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15402</v>
+        <v>15294</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34216</v>
+        <v>34532</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04571081912955613</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02986997385966605</v>
+        <v>0.02965961088318528</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06635563699706944</v>
+        <v>0.06696965206505964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -1712,19 +1712,19 @@
         <v>29884</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20139</v>
+        <v>20729</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41964</v>
+        <v>43358</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02887962394071995</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01946203294901688</v>
+        <v>0.02003167121917574</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04055339198743836</v>
+        <v>0.041900759857366</v>
       </c>
     </row>
     <row r="18">
@@ -1741,19 +1741,19 @@
         <v>512833</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>504540</v>
+        <v>504235</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>516615</v>
+        <v>517307</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9878379344121293</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.971864054412553</v>
+        <v>0.9712756489269612</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9951219870902147</v>
+        <v>0.9964549488330017</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>477</v>
@@ -1762,19 +1762,19 @@
         <v>490119</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>478927</v>
+        <v>479086</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>498219</v>
+        <v>499053</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9505020103376912</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9287969633230357</v>
+        <v>0.9291066909149814</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.966210900002092</v>
+        <v>0.9678281550825947</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>956</v>
@@ -1783,19 +1783,19 @@
         <v>1002952</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>989986</v>
+        <v>989236</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1013089</v>
+        <v>1012746</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.969233204773026</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9567036437794201</v>
+        <v>0.9559789118140496</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9790295428190405</v>
+        <v>0.9786979711463704</v>
       </c>
     </row>
     <row r="19">
@@ -1934,19 +1934,19 @@
         <v>6302</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2486</v>
+        <v>2360</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13650</v>
+        <v>13265</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01629676531469233</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006427717091197696</v>
+        <v>0.006103053249671291</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03529878905388244</v>
+        <v>0.0343034523149645</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1955,19 +1955,19 @@
         <v>8753</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4170</v>
+        <v>4087</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17682</v>
+        <v>17314</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02166704170344515</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01032147971632506</v>
+        <v>0.0101169801973147</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04376960232081783</v>
+        <v>0.04285782974569996</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1976,19 +1976,19 @@
         <v>15055</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9172</v>
+        <v>8455</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25008</v>
+        <v>25031</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01904057118377644</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01159973950589853</v>
+        <v>0.01069329248356937</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03162836606665943</v>
+        <v>0.03165738877546904</v>
       </c>
     </row>
     <row r="22">
@@ -2005,19 +2005,19 @@
         <v>380408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>373060</v>
+        <v>373445</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>384224</v>
+        <v>384350</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9837032346853076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9647012109461175</v>
+        <v>0.9656965476850357</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9935722829088022</v>
+        <v>0.9938969467503288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>388</v>
@@ -2026,19 +2026,19 @@
         <v>395233</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>386304</v>
+        <v>386672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>399816</v>
+        <v>399899</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9783329582965549</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9562303976791825</v>
+        <v>0.9571421702543005</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.989678520283675</v>
+        <v>0.9898830198026854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>774</v>
@@ -2047,19 +2047,19 @@
         <v>775641</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>765688</v>
+        <v>765665</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>781524</v>
+        <v>782241</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9809594288162236</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9683716339333421</v>
+        <v>0.968342611224531</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9884002604941016</v>
+        <v>0.9893067075164307</v>
       </c>
     </row>
     <row r="23">
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5525</v>
+        <v>6003</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006066002732061055</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01888508484639723</v>
+        <v>0.02051636470283351</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6170</v>
+        <v>6341</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002792701502585127</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009708007470219602</v>
+        <v>0.00997704387000126</v>
       </c>
     </row>
     <row r="25">
@@ -2227,19 +2227,19 @@
         <v>5589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1942</v>
+        <v>1922</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11136</v>
+        <v>11785</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01629736648800014</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005661661816605234</v>
+        <v>0.005604657393749519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03247398212885018</v>
+        <v>0.03436528407766309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2248,19 +2248,19 @@
         <v>5589</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1879</v>
+        <v>1866</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11222</v>
+        <v>11243</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008794290427934759</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002957228547335527</v>
+        <v>0.002935643477533185</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01765812553695873</v>
+        <v>0.01769155311165971</v>
       </c>
     </row>
     <row r="26">
@@ -2277,7 +2277,7 @@
         <v>290808</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>287058</v>
+        <v>286580</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>292583</v>
@@ -2286,7 +2286,7 @@
         <v>0.993933997267939</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9811149151536027</v>
+        <v>0.9794836352971668</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2298,19 +2298,19 @@
         <v>337345</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>331798</v>
+        <v>331149</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>340992</v>
+        <v>341012</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9837026335119998</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9675260178711499</v>
+        <v>0.9656347159223369</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9943383381833948</v>
+        <v>0.9943953426062501</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>666</v>
@@ -2319,19 +2319,19 @@
         <v>628153</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>622641</v>
+        <v>621870</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>632567</v>
+        <v>631970</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9884130080694801</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9797385998565592</v>
+        <v>0.9785259576153226</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9953574632143948</v>
+        <v>0.9944192844876975</v>
       </c>
     </row>
     <row r="27">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7604</v>
+        <v>7265</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006261785232466603</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02277170963189022</v>
+        <v>0.02175734470580885</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7530</v>
+        <v>7642</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003844970105691232</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01384774522021591</v>
+        <v>0.01405249080561149</v>
       </c>
     </row>
     <row r="30">
@@ -2546,7 +2546,7 @@
         <v>331817</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>326304</v>
+        <v>326643</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>333908</v>
@@ -2555,7 +2555,7 @@
         <v>0.9937382147675334</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.97722829036811</v>
+        <v>0.9782426552941913</v>
       </c>
       <c r="P30" s="6" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>541700</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>536261</v>
+        <v>536149</v>
       </c>
       <c r="T30" s="5" t="n">
         <v>543791</v>
@@ -2576,7 +2576,7 @@
         <v>0.9961550298943088</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9861522547797843</v>
+        <v>0.9859475091943886</v>
       </c>
       <c r="W30" s="6" t="n">
         <v>1</v>
@@ -2671,19 +2671,19 @@
         <v>10392</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4749</v>
+        <v>4940</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19216</v>
+        <v>20155</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003171550351621904</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001449318221657581</v>
+        <v>0.001507571368564296</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.005864808367870647</v>
+        <v>0.00615137107274529</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2692,19 +2692,19 @@
         <v>12483</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6775</v>
+        <v>6535</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20821</v>
+        <v>20503</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003693965023305287</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002005012643814613</v>
+        <v>0.001933857375866797</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.006161661928311479</v>
+        <v>0.006067343117861831</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -2713,19 +2713,19 @@
         <v>22874</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14911</v>
+        <v>15280</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34540</v>
+        <v>35510</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003436786386297051</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00224035371774499</v>
+        <v>0.002295792503078388</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005189449449453151</v>
+        <v>0.005335314983916256</v>
       </c>
     </row>
     <row r="33">
@@ -2742,19 +2742,19 @@
         <v>55303</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>42771</v>
+        <v>42493</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>70583</v>
+        <v>72606</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01687840645968696</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01305360795077747</v>
+        <v>0.01296870506884806</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02154202166483644</v>
+        <v>0.0221592749282627</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>245</v>
@@ -2763,19 +2763,19 @@
         <v>251449</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>221321</v>
+        <v>221678</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>287028</v>
+        <v>285198</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07441088019743507</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06549511887259424</v>
+        <v>0.06560074211112686</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08493962496823815</v>
+        <v>0.08439817475393135</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>299</v>
@@ -2784,19 +2784,19 @@
         <v>306752</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>276494</v>
+        <v>272713</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>343780</v>
+        <v>342009</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04608831580254832</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04154224252154648</v>
+        <v>0.04097407782747456</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05165157759822301</v>
+        <v>0.05138561051721378</v>
       </c>
     </row>
     <row r="34">
@@ -2813,19 +2813,19 @@
         <v>3210848</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3194302</v>
+        <v>3192430</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3225795</v>
+        <v>3225722</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9799500431886912</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9749001433881248</v>
+        <v>0.9743287908580693</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9845117786999074</v>
+        <v>0.9844894197820907</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3039</v>
@@ -2834,19 +2834,19 @@
         <v>3115265</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3079752</v>
+        <v>3082045</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3146847</v>
+        <v>3146420</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9218951547792597</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9113856732299949</v>
+        <v>0.9120643145761071</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9312411162820512</v>
+        <v>0.9311147108267727</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6190</v>
@@ -2855,19 +2855,19 @@
         <v>6326115</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6288387</v>
+        <v>6288471</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6356959</v>
+        <v>6361121</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9504748978111546</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9448064726065817</v>
+        <v>0.9448190043536913</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9551090887920441</v>
+        <v>0.9557345246447744</v>
       </c>
     </row>
     <row r="35">
@@ -3202,19 +3202,19 @@
         <v>4159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>945</v>
+        <v>958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9716</v>
+        <v>10236</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009198365606279903</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002089994572572028</v>
+        <v>0.002117705226899817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02148794104440714</v>
+        <v>0.02263793954046036</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -3223,19 +3223,19 @@
         <v>4785</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11501</v>
+        <v>10350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01117881585633986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004298269384741372</v>
+        <v>0.004281719900028827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02686902515606511</v>
+        <v>0.02418150556797417</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -3244,19 +3244,19 @@
         <v>8944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4158</v>
+        <v>4547</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16296</v>
+        <v>16588</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01016142457968777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004723756940106668</v>
+        <v>0.005165423989279099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01851455862970143</v>
+        <v>0.01884625532899048</v>
       </c>
     </row>
     <row r="5">
@@ -3273,19 +3273,19 @@
         <v>12002</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6469</v>
+        <v>6223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20765</v>
+        <v>20980</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02654363160900661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01430701661125019</v>
+        <v>0.01376191922697489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0459231805366489</v>
+        <v>0.04639879845080793</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -3294,19 +3294,19 @@
         <v>37762</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27270</v>
+        <v>27429</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50717</v>
+        <v>50491</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08822417576261013</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0637120433607845</v>
+        <v>0.06408226802980363</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1184898076216323</v>
+        <v>0.1179625759170478</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -3315,19 +3315,19 @@
         <v>49764</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37105</v>
+        <v>37259</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63766</v>
+        <v>64898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05653782183418887</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04215514792041766</v>
+        <v>0.04233068700486511</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07244500274173767</v>
+        <v>0.07373078862246364</v>
       </c>
     </row>
     <row r="6">
@@ -3344,19 +3344,19 @@
         <v>436010</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>426212</v>
+        <v>425946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>443167</v>
+        <v>442822</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9642580027847135</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9425875031500983</v>
+        <v>0.9419990070776214</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9800859356870428</v>
+        <v>0.9793212827340254</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>377</v>
@@ -3365,19 +3365,19 @@
         <v>385478</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>372304</v>
+        <v>371745</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>396903</v>
+        <v>396484</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9005970083810501</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8698174347896739</v>
+        <v>0.8685132033164403</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9272885449053182</v>
+        <v>0.9263094800419828</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>805</v>
@@ -3386,19 +3386,19 @@
         <v>821489</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>806753</v>
+        <v>805454</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>835731</v>
+        <v>834316</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9333007535861234</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9165598256060096</v>
+        <v>0.9150836444082349</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9494818639518287</v>
+        <v>0.9478744459454789</v>
       </c>
     </row>
     <row r="7">
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4738</v>
+        <v>5656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00136937698313528</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006924330035870859</v>
+        <v>0.008266249056572295</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3511,19 +3511,19 @@
         <v>17055</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10332</v>
+        <v>9432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27818</v>
+        <v>27097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02799126973631346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01695738990164265</v>
+        <v>0.01548011815813049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04565628266834545</v>
+        <v>0.04447259817130336</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -3532,19 +3532,19 @@
         <v>17992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10382</v>
+        <v>10727</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29070</v>
+        <v>30363</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01390880701383231</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008025704335616527</v>
+        <v>0.008292419139516402</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02247271253633606</v>
+        <v>0.02347240880713275</v>
       </c>
     </row>
     <row r="9">
@@ -3561,19 +3561,19 @@
         <v>22973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14466</v>
+        <v>14020</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36138</v>
+        <v>35359</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03357313914347809</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02114137559512321</v>
+        <v>0.02048958456574798</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05281294969327156</v>
+        <v>0.05167508428127344</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>90</v>
@@ -3582,19 +3582,19 @@
         <v>92369</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>76499</v>
+        <v>77486</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>111964</v>
+        <v>111811</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1516015252486504</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1255550328218039</v>
+        <v>0.1271749606459441</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1837629078152759</v>
+        <v>0.1835113870024193</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>111</v>
@@ -3603,19 +3603,19 @@
         <v>115342</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>96571</v>
+        <v>95650</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>137688</v>
+        <v>138465</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08916680796799153</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07465609265973046</v>
+        <v>0.07394347636088285</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.106441733152877</v>
+        <v>0.1070425806303945</v>
       </c>
     </row>
     <row r="10">
@@ -3632,19 +3632,19 @@
         <v>660352</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>647706</v>
+        <v>648161</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>668756</v>
+        <v>669439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9650574838733866</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9465754864711525</v>
+        <v>0.9472405279226013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9773396818385157</v>
+        <v>0.9783370166587961</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>465</v>
@@ -3653,19 +3653,19 @@
         <v>499863</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>478828</v>
+        <v>476902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>518293</v>
+        <v>516062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8204072050150362</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7858819579239434</v>
+        <v>0.7827209986553439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8506551067138765</v>
+        <v>0.8469925132112133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1108</v>
@@ -3674,19 +3674,19 @@
         <v>1160216</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1138327</v>
+        <v>1136371</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1181304</v>
+        <v>1181425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8969243850181762</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.880002717915484</v>
+        <v>0.8784912446131764</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9132270313096724</v>
+        <v>0.9133207407190131</v>
       </c>
     </row>
     <row r="11">
@@ -3791,19 +3791,19 @@
         <v>4867</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10763</v>
+        <v>10903</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006885823983894826</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002729802286461219</v>
+        <v>0.002726130916441424</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01522818244802688</v>
+        <v>0.01542586267046383</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -3812,19 +3812,19 @@
         <v>4867</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1921</v>
+        <v>1938</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10591</v>
+        <v>11285</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003507122225614827</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001384012719210639</v>
+        <v>0.001396453651684197</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.007631589909201131</v>
+        <v>0.008132052154931941</v>
       </c>
     </row>
     <row r="13">
@@ -3841,19 +3841,19 @@
         <v>19741</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12613</v>
+        <v>12143</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30331</v>
+        <v>31269</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02899104146277597</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01852308203577476</v>
+        <v>0.01783338136269715</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04454392653122417</v>
+        <v>0.04592060064914449</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -3862,19 +3862,19 @@
         <v>49584</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36559</v>
+        <v>37705</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64904</v>
+        <v>64946</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07015219115055278</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05172333009883773</v>
+        <v>0.05334495243908927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09182726227820026</v>
+        <v>0.09188623348878877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -3883,19 +3883,19 @@
         <v>69325</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53684</v>
+        <v>54269</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87750</v>
+        <v>86155</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04995544357928319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03868461066430623</v>
+        <v>0.03910598429732932</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06323226934187992</v>
+        <v>0.06208342545324873</v>
       </c>
     </row>
     <row r="14">
@@ -3912,19 +3912,19 @@
         <v>661186</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>650596</v>
+        <v>649658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>668314</v>
+        <v>668784</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.971008958537224</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9554560734687757</v>
+        <v>0.9540793993508554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9814769179642252</v>
+        <v>0.9821666186373028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>610</v>
@@ -3933,19 +3933,19 @@
         <v>652358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>637137</v>
+        <v>636839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>665550</v>
+        <v>665705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9229619848655524</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9014267842048104</v>
+        <v>0.9010060013914238</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9416269170819765</v>
+        <v>0.9418459563238405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1241</v>
@@ -3954,19 +3954,19 @@
         <v>1313544</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1293879</v>
+        <v>1295104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1328776</v>
+        <v>1329060</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9465374341951019</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9323669527958481</v>
+        <v>0.9332498300045156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9575133799486049</v>
+        <v>0.9577180307095835</v>
       </c>
     </row>
     <row r="15">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6410</v>
+        <v>6894</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001857612958112745</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0105035569824051</v>
+        <v>0.01129619549400165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4079,19 +4079,19 @@
         <v>6260</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3028</v>
+        <v>2144</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13022</v>
+        <v>13298</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01019669131231093</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004931900705645107</v>
+        <v>0.003492619795207049</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02120999994812876</v>
+        <v>0.02166032980139664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -4100,19 +4100,19 @@
         <v>7394</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3100</v>
+        <v>3159</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13758</v>
+        <v>14793</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006039644722258809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0025319321316267</v>
+        <v>0.002580756417963864</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01123841488318393</v>
+        <v>0.0120831405341266</v>
       </c>
     </row>
     <row r="17">
@@ -4129,19 +4129,19 @@
         <v>15860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9294</v>
+        <v>8881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25863</v>
+        <v>25881</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02598847249661526</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01522949373514971</v>
+        <v>0.01455265826792781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0423797255712873</v>
+        <v>0.04240849361299662</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -4150,19 +4150,19 @@
         <v>24804</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15610</v>
+        <v>15361</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37916</v>
+        <v>37504</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0404006634368761</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02542515912285775</v>
+        <v>0.02502063276219241</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06175845581669331</v>
+        <v>0.06108709365006557</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -4171,19 +4171,19 @@
         <v>40664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27978</v>
+        <v>28444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57506</v>
+        <v>55435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03321615854812787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02285393344663332</v>
+        <v>0.02323428150502179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04697348485264762</v>
+        <v>0.0452815568476807</v>
       </c>
     </row>
     <row r="18">
@@ -4200,19 +4200,19 @@
         <v>593286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>582485</v>
+        <v>582274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>600447</v>
+        <v>599966</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.972153914545272</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9544547893063923</v>
+        <v>0.9541096757732543</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9838873046556393</v>
+        <v>0.9831003315815876</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>510</v>
@@ -4221,19 +4221,19 @@
         <v>582884</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>568311</v>
+        <v>569387</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>593220</v>
+        <v>593531</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.949402645250813</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9256661691678084</v>
+        <v>0.9274192816204557</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9662374262351204</v>
+        <v>0.9667443533035421</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1039</v>
@@ -4242,19 +4242,19 @@
         <v>1176170</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1158790</v>
+        <v>1160440</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1189518</v>
+        <v>1189848</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9607441967296133</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9465471748109218</v>
+        <v>0.9478957278135474</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9716473085784335</v>
+        <v>0.9719172157541404</v>
       </c>
     </row>
     <row r="19">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4921</v>
+        <v>4984</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002296842545353704</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01146007010397253</v>
+        <v>0.01160495462995148</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4970</v>
+        <v>4984</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001126899429772612</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005678376257923414</v>
+        <v>0.005694799606959202</v>
       </c>
     </row>
     <row r="21">
@@ -4409,19 +4409,19 @@
         <v>3309</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8693</v>
+        <v>8875</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007705210618017468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0</v>
+        <v>0.002377482144408213</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02024346435850395</v>
+        <v>0.0206658405118305</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -4430,19 +4430,19 @@
         <v>8527</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4148</v>
+        <v>4198</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16144</v>
+        <v>15864</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01912530601142352</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009303884990183113</v>
+        <v>0.009415541132578337</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03621116514094054</v>
+        <v>0.03558387498056612</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -4451,19 +4451,19 @@
         <v>11836</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5592</v>
+        <v>6375</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20244</v>
+        <v>19464</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01352226673787318</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006389187682723525</v>
+        <v>0.007284015337293572</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02312928235864976</v>
+        <v>0.02223836074253697</v>
       </c>
     </row>
     <row r="22">
@@ -4480,19 +4480,19 @@
         <v>425134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>419397</v>
+        <v>418916</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>428382</v>
+        <v>428386</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9899979468366288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9766382288282919</v>
+        <v>0.9755192296105532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9975612961806221</v>
+        <v>0.9975722539835389</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>396</v>
@@ -4501,19 +4501,19 @@
         <v>437305</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>429688</v>
+        <v>429968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>441684</v>
+        <v>441634</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9808746939885765</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9637888348590594</v>
+        <v>0.9644161250194339</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9906961150098169</v>
+        <v>0.9905844588674216</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>785</v>
@@ -4522,19 +4522,19 @@
         <v>862439</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>854370</v>
+        <v>854014</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>868861</v>
+        <v>868647</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9853508338323542</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9761317601535071</v>
+        <v>0.9757249087528653</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9926875496255125</v>
+        <v>0.992442991878695</v>
       </c>
     </row>
     <row r="23">
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7403</v>
+        <v>7384</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006795311476786841</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02397550848004034</v>
+        <v>0.02391415572265158</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -4694,19 +4694,19 @@
         <v>8344</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3611</v>
+        <v>2979</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19034</v>
+        <v>18186</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02362950272849231</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01022680613680586</v>
+        <v>0.008436254853977681</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05390543636010003</v>
+        <v>0.05150279439410759</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -4715,19 +4715,19 @@
         <v>10442</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4788</v>
+        <v>4956</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21007</v>
+        <v>21204</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01577619502574818</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007233997569006897</v>
+        <v>0.007488452127624539</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03173926747049498</v>
+        <v>0.03203692060747862</v>
       </c>
     </row>
     <row r="26">
@@ -4744,7 +4744,7 @@
         <v>306671</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>301366</v>
+        <v>301385</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>308769</v>
@@ -4753,7 +4753,7 @@
         <v>0.9932046885232132</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9760244915199596</v>
+        <v>0.9760858442773485</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -4765,19 +4765,19 @@
         <v>344758</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>334068</v>
+        <v>334916</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>349491</v>
+        <v>350123</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9763704972715077</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9460945636399</v>
+        <v>0.948497205605891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9897731938631941</v>
+        <v>0.9915637451460223</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>616</v>
@@ -4786,19 +4786,19 @@
         <v>651430</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>640865</v>
+        <v>640668</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>657084</v>
+        <v>656916</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9842238049742518</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.968260732529505</v>
+        <v>0.9679630793925214</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9927660024309931</v>
+        <v>0.9925115478723754</v>
       </c>
     </row>
     <row r="27">
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6399</v>
+        <v>8100</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008479109325409101</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02582060804534894</v>
+        <v>0.03268713520476614</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -4958,19 +4958,19 @@
         <v>8742</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4246</v>
+        <v>4320</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16381</v>
+        <v>16531</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02254267848178051</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01094976570835168</v>
+        <v>0.01114092414552614</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0422405425431882</v>
+        <v>0.04262755779157646</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -4979,19 +4979,19 @@
         <v>10843</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5410</v>
+        <v>5424</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19575</v>
+        <v>19325</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01705957184077806</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008512106951728261</v>
+        <v>0.008532945787891259</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03079798987841535</v>
+        <v>0.03040351847336864</v>
       </c>
     </row>
     <row r="30">
@@ -5008,7 +5008,7 @@
         <v>245709</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>241411</v>
+        <v>239710</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>247810</v>
@@ -5017,7 +5017,7 @@
         <v>0.9915208906745909</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9741793919546511</v>
+        <v>0.9673128647952324</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -5029,19 +5029,19 @@
         <v>379054</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>371415</v>
+        <v>371265</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>383550</v>
+        <v>383476</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9774573215182195</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9577594574568117</v>
+        <v>0.9573724422084235</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9890502342916483</v>
+        <v>0.9888590758544739</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>559</v>
@@ -5050,19 +5050,19 @@
         <v>624764</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>616032</v>
+        <v>616282</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>630197</v>
+        <v>630183</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9829404281592219</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9692020101215847</v>
+        <v>0.9695964815266314</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9914878930482718</v>
+        <v>0.9914670542121087</v>
       </c>
     </row>
     <row r="31">
@@ -5154,19 +5154,19 @@
         <v>7216</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3055</v>
+        <v>2901</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>15468</v>
+        <v>14606</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002113940047598578</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0008950015475120834</v>
+        <v>0.0008498926530995436</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.004531095273735143</v>
+        <v>0.004278691944179949</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -5175,19 +5175,19 @@
         <v>32967</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22766</v>
+        <v>23275</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>46227</v>
+        <v>47946</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009300024991978049</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006422428115842532</v>
+        <v>0.006566075724993212</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0130407750854865</v>
+        <v>0.0135256163118233</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -5196,19 +5196,19 @@
         <v>40183</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>27508</v>
+        <v>28164</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>53521</v>
+        <v>54831</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005774701539821827</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00395321235172104</v>
+        <v>0.004047420958963389</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007691513733287239</v>
+        <v>0.007879761677384245</v>
       </c>
     </row>
     <row r="33">
@@ -5225,19 +5225,19 @@
         <v>78084</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>60268</v>
+        <v>61524</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>97674</v>
+        <v>97404</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02287416183049293</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01765508754495761</v>
+        <v>0.0180230642263311</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0286128576166573</v>
+        <v>0.02853353024088105</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>218</v>
@@ -5246,19 +5246,19 @@
         <v>230131</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>201498</v>
+        <v>202954</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>259908</v>
+        <v>263880</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06492082944992032</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05684332753416757</v>
+        <v>0.05725406242052262</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0733209449242667</v>
+        <v>0.07444140474804668</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>291</v>
@@ -5267,19 +5267,19 @@
         <v>308216</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>277604</v>
+        <v>273102</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>340800</v>
+        <v>344912</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04429372796266053</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03989446862355961</v>
+        <v>0.03924749613417682</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04897649909688335</v>
+        <v>0.04956741842757821</v>
       </c>
     </row>
     <row r="34">
@@ -5296,19 +5296,19 @@
         <v>3328350</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3307293</v>
+        <v>3307965</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3346908</v>
+        <v>3345639</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9750118981219085</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9688432484710132</v>
+        <v>0.9690400890092666</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9804482128715629</v>
+        <v>0.9800764968322371</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3036</v>
@@ -5317,19 +5317,19 @@
         <v>3281701</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3249813</v>
+        <v>3247122</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3311690</v>
+        <v>3310069</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9257791455581016</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9167833013683202</v>
+        <v>0.9160243473259827</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9342390941738298</v>
+        <v>0.933781964674817</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6153</v>
@@ -5338,19 +5338,19 @@
         <v>6610050</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6573681</v>
+        <v>6572452</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6644186</v>
+        <v>6649265</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9499315704975176</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.944704890984043</v>
+        <v>0.9445282913244446</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.954837178854506</v>
+        <v>0.9555671298621121</v>
       </c>
     </row>
     <row r="35">
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5348</v>
+        <v>5331</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002542963208995643</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01284667008476016</v>
+        <v>0.01280617174884011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5950</v>
+        <v>5721</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004705353800564979</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01503389273354147</v>
+        <v>0.01445499317460043</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5727,19 +5727,19 @@
         <v>2921</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>992</v>
+        <v>859</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8070</v>
+        <v>8597</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0035968342626568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001221856446876963</v>
+        <v>0.001057804440054975</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009937808597984026</v>
+        <v>0.0105872095242692</v>
       </c>
     </row>
     <row r="5">
@@ -5756,19 +5756,19 @@
         <v>4033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9153</v>
+        <v>10239</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009688547189907977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002407774964962659</v>
+        <v>0.002424954313485364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02198811309455092</v>
+        <v>0.02459752065413964</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -5777,19 +5777,19 @@
         <v>20519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12646</v>
+        <v>12776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28996</v>
+        <v>29325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05184886983012552</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03195473887766564</v>
+        <v>0.0322814995607249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07326737277933926</v>
+        <v>0.07409771111608734</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -5798,19 +5798,19 @@
         <v>24553</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16560</v>
+        <v>16452</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36691</v>
+        <v>37235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03023596531906964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02039296774597769</v>
+        <v>0.02026031825974725</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04518434731840563</v>
+        <v>0.0458535467071844</v>
       </c>
     </row>
     <row r="6">
@@ -5827,19 +5827,19 @@
         <v>411185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>405606</v>
+        <v>404989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>414262</v>
+        <v>414325</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9877684896010964</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9743654139833776</v>
+        <v>0.9728832266205444</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9951596694875537</v>
+        <v>0.9953119420176159</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>381</v>
@@ -5848,19 +5848,19 @@
         <v>373373</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>363947</v>
+        <v>363764</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>381465</v>
+        <v>381194</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9434457763693095</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9196274599111723</v>
+        <v>0.9191654908686053</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9638909545426446</v>
+        <v>0.9632065500415716</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>766</v>
@@ -5869,19 +5869,19 @@
         <v>784559</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>771926</v>
+        <v>771042</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>792595</v>
+        <v>792709</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9661672004182735</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9506101396447746</v>
+        <v>0.9495219533474103</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9760635766767206</v>
+        <v>0.9762043875318176</v>
       </c>
     </row>
     <row r="7">
@@ -5986,19 +5986,19 @@
         <v>6707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2861</v>
+        <v>2856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13409</v>
+        <v>12633</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01190068831632785</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005076542617561679</v>
+        <v>0.005068758825222688</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02379433610108474</v>
+        <v>0.02241630014549994</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -6007,19 +6007,19 @@
         <v>6707</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2831</v>
+        <v>2852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12611</v>
+        <v>13977</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005822189634270199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002457622362172664</v>
+        <v>0.002476277473619914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01094840360405444</v>
+        <v>0.01213359754607786</v>
       </c>
     </row>
     <row r="9">
@@ -6036,19 +6036,19 @@
         <v>14770</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8130</v>
+        <v>8573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23762</v>
+        <v>24526</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02510435767581489</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01381823068480766</v>
+        <v>0.01457089539684488</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04038658118040955</v>
+        <v>0.04168599103215988</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -6057,19 +6057,19 @@
         <v>41584</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30996</v>
+        <v>31376</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54624</v>
+        <v>55731</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07378965225215188</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05500194526805202</v>
+        <v>0.05567540986362101</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09692879825843392</v>
+        <v>0.09889308605975</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>58</v>
@@ -6078,19 +6078,19 @@
         <v>56354</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>44628</v>
+        <v>42801</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>71723</v>
+        <v>71721</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04892272934385004</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03874292716015448</v>
+        <v>0.03715666508161881</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06226550042109697</v>
+        <v>0.06226360525601039</v>
       </c>
     </row>
     <row r="10">
@@ -6107,19 +6107,19 @@
         <v>573583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>564591</v>
+        <v>563827</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>580223</v>
+        <v>579780</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9748956423241851</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9596134188195905</v>
+        <v>0.9583140089678401</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9861817693151924</v>
+        <v>0.9854291046031551</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>529</v>
@@ -6128,19 +6128,19 @@
         <v>515254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>501700</v>
+        <v>501200</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>527577</v>
+        <v>526438</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9143096594315203</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8902585093996543</v>
+        <v>0.8893717361870074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9361773762811185</v>
+        <v>0.934156852061794</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1079</v>
@@ -6149,19 +6149,19 @@
         <v>1088836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1072822</v>
+        <v>1073436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1101821</v>
+        <v>1104179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9452550810218797</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9313533736047975</v>
+        <v>0.9318860405097393</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9565278752497512</v>
+        <v>0.9585750107758085</v>
       </c>
     </row>
     <row r="11">
@@ -6266,19 +6266,19 @@
         <v>3676</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8412</v>
+        <v>9810</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005585712116979024</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001434220106564854</v>
+        <v>0.001405927048034306</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01278112725382104</v>
+        <v>0.01490513144476906</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -6287,19 +6287,19 @@
         <v>3676</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8805</v>
+        <v>9106</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002775999939150178</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0007010110569755457</v>
+        <v>0.00070138127396275</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.006648573304190133</v>
+        <v>0.00687560099224733</v>
       </c>
     </row>
     <row r="13">
@@ -6316,19 +6316,19 @@
         <v>3969</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>985</v>
+        <v>1039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10332</v>
+        <v>9195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00595775131865097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001477921503888779</v>
+        <v>0.001558943820986531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0155094134727464</v>
+        <v>0.01380229835622177</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -6337,19 +6337,19 @@
         <v>21366</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13850</v>
+        <v>13474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32328</v>
+        <v>31310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03246329098708321</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02104262269492415</v>
+        <v>0.02047122373496778</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04911845720672668</v>
+        <v>0.04757179256462465</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -6358,19 +6358,19 @@
         <v>25335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16307</v>
+        <v>15920</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35581</v>
+        <v>35844</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01913053483591272</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0123131836699803</v>
+        <v>0.01202145695951162</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02686704160375488</v>
+        <v>0.02706584611480196</v>
       </c>
     </row>
     <row r="14">
@@ -6387,19 +6387,19 @@
         <v>662194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>655831</v>
+        <v>656968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>665178</v>
+        <v>665124</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.994042248681349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.984490586527253</v>
+        <v>0.9861977016437781</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9985220784961112</v>
+        <v>0.9984410561790135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>636</v>
@@ -6408,19 +6408,19 @@
         <v>633127</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>621783</v>
+        <v>622277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>641152</v>
+        <v>642128</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9619509968959378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9447155915210793</v>
+        <v>0.945465013855225</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9741429583683369</v>
+        <v>0.9756264356598192</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1267</v>
@@ -6429,19 +6429,19 @@
         <v>1295321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1283657</v>
+        <v>1283929</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1304473</v>
+        <v>1305372</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9780934652249371</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9692857809861744</v>
+        <v>0.9694911836979249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9850039453825788</v>
+        <v>0.9856824296010683</v>
       </c>
     </row>
     <row r="15">
@@ -6546,19 +6546,19 @@
         <v>4122</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>991</v>
+        <v>1079</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10478</v>
+        <v>10246</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006391636288213738</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001536115256797994</v>
+        <v>0.001673596942265166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01624739451749269</v>
+        <v>0.0158881068444465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -6567,19 +6567,19 @@
         <v>4122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>993</v>
+        <v>1078</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9385</v>
+        <v>9556</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003195636402533371</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0007697325306905372</v>
+        <v>0.0008359328299999706</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007276351210950245</v>
+        <v>0.007408677882302506</v>
       </c>
     </row>
     <row r="17">
@@ -6596,19 +6596,19 @@
         <v>4209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9565</v>
+        <v>9560</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006526224977374753</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001722257738603962</v>
+        <v>0.001710517442276846</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01483102887454943</v>
+        <v>0.01482235145411989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -6617,19 +6617,19 @@
         <v>15829</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8817</v>
+        <v>8205</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26328</v>
+        <v>25331</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02454496894843647</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01367201566362148</v>
+        <v>0.01272344316730212</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04082474937971801</v>
+        <v>0.03927975219478857</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -6638,19 +6638,19 @@
         <v>20038</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12654</v>
+        <v>12085</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31781</v>
+        <v>30325</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01553508461290099</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009810649211666097</v>
+        <v>0.009369622842611204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02463954225069233</v>
+        <v>0.02351017102187309</v>
       </c>
     </row>
     <row r="18">
@@ -6667,19 +6667,19 @@
         <v>640756</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>635400</v>
+        <v>635405</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>643854</v>
+        <v>643862</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9934737750226252</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9851689711254505</v>
+        <v>0.98517764854588</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.998277742261396</v>
+        <v>0.9982894825577231</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>580</v>
@@ -6688,19 +6688,19 @@
         <v>624940</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>613056</v>
+        <v>614917</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>632634</v>
+        <v>633360</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9690633947633498</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9506343523321154</v>
+        <v>0.9535213109940924</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.98099339899752</v>
+        <v>0.9821192324885835</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1157</v>
@@ -6709,19 +6709,19 @@
         <v>1265696</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1253740</v>
+        <v>1254037</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1274540</v>
+        <v>1273846</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9812692789845656</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9719999640679384</v>
+        <v>0.9722298886197865</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9881256538469512</v>
+        <v>0.9875875020825273</v>
       </c>
     </row>
     <row r="19">
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8129</v>
+        <v>7858</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004685217599138254</v>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01639360260930322</v>
+        <v>0.01584754321042391</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6989</v>
+        <v>8191</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002392684291125255</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007197966597046672</v>
+        <v>0.008436066778494214</v>
       </c>
     </row>
     <row r="21">
@@ -6889,19 +6889,19 @@
         <v>5752</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1201</v>
+        <v>2296</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11849</v>
+        <v>13140</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01160077465651035</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002423103050316008</v>
+        <v>0.004630596721931019</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02389668813754528</v>
+        <v>0.02650043696947437</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -6910,19 +6910,19 @@
         <v>5752</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2282</v>
+        <v>2219</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12622</v>
+        <v>12720</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00592437612516046</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002350092825509318</v>
+        <v>0.002285877245000399</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01300010119136274</v>
+        <v>0.01310107914997994</v>
       </c>
     </row>
     <row r="22">
@@ -6952,19 +6952,19 @@
         <v>487771</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>480819</v>
+        <v>480693</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>492416</v>
+        <v>492383</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9837140077443514</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9696937625959546</v>
+        <v>0.9694404428534631</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9930818107012372</v>
+        <v>0.9930160830620992</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>847</v>
@@ -6973,19 +6973,19 @@
         <v>962863</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>955336</v>
+        <v>954808</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>967474</v>
+        <v>967503</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9916829395837142</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9839310888130853</v>
+        <v>0.9833867793258615</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9964320883378286</v>
+        <v>0.9964619717017648</v>
       </c>
     </row>
     <row r="23">
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4812</v>
+        <v>4802</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002882070760401104</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01446060748591853</v>
+        <v>0.01443068152083928</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4795</v>
+        <v>4814</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001355476006479879</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.006777290409638259</v>
+        <v>0.006804208310550151</v>
       </c>
     </row>
     <row r="25">
@@ -7140,19 +7140,19 @@
         <v>2897</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7862</v>
+        <v>7947</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008706620392801815</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002794377439071281</v>
+        <v>0.002800496453996351</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02362816079897755</v>
+        <v>0.02388482717186694</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5047</v>
+        <v>5026</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002711973530384659</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01346737558281009</v>
+        <v>0.01341120424311694</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -7182,19 +7182,19 @@
         <v>3913</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>941</v>
+        <v>1014</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8890</v>
+        <v>8935</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005531335254937003</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001329742905255959</v>
+        <v>0.001432916252654871</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01256513407610468</v>
+        <v>0.01262882012785486</v>
       </c>
     </row>
     <row r="26">
@@ -7211,19 +7211,19 @@
         <v>328885</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>323250</v>
+        <v>322219</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>331783</v>
+        <v>331778</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9884113088467971</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.971477293423577</v>
+        <v>0.9683770919736371</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9971216004585357</v>
+        <v>0.9971072515211942</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>350</v>
@@ -7232,7 +7232,7 @@
         <v>373732</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>369701</v>
+        <v>369722</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>374748</v>
@@ -7241,7 +7241,7 @@
         <v>0.9972880264696153</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9865326244171899</v>
+        <v>0.9865887957568831</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -7253,19 +7253,19 @@
         <v>702617</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>697324</v>
+        <v>696696</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>706457</v>
+        <v>705618</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9931131887385831</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9856319447437871</v>
+        <v>0.9847442064991077</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9985416284218238</v>
+        <v>0.9973561395370343</v>
       </c>
     </row>
     <row r="27">
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6919</v>
+        <v>6800</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0005969537922999358</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.002047163896549279</v>
+        <v>0.002011911063695484</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -7594,19 +7594,19 @@
         <v>18690</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11424</v>
+        <v>11826</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28036</v>
+        <v>29163</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005291879159521401</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003234526487247856</v>
+        <v>0.003348358932337195</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.007937909971764603</v>
+        <v>0.00825701059612001</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -7615,19 +7615,19 @@
         <v>20708</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13143</v>
+        <v>13258</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30973</v>
+        <v>31997</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002996072809712007</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001901521707726091</v>
+        <v>0.001918271411385665</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.004481310870668605</v>
+        <v>0.004629524879584582</v>
       </c>
     </row>
     <row r="33">
@@ -7644,19 +7644,19 @@
         <v>29878</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>19766</v>
+        <v>20612</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>41964</v>
+        <v>43353</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.008840390052148124</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.005848412825723558</v>
+        <v>0.006098794929536651</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01241624656480502</v>
+        <v>0.01282711109418958</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>106</v>
@@ -7665,19 +7665,19 @@
         <v>106067</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>87404</v>
+        <v>87436</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>128785</v>
+        <v>128657</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03003151411472997</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02474724230687034</v>
+        <v>0.02475644609526417</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0364640014751003</v>
+        <v>0.03642763634586436</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>136</v>
@@ -7686,19 +7686,19 @@
         <v>135945</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>115204</v>
+        <v>112853</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>162147</v>
+        <v>162480</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01966910931014277</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01666814647164104</v>
+        <v>0.01632796811257146</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02346004366650107</v>
+        <v>0.02350820045874655</v>
       </c>
     </row>
     <row r="34">
@@ -7715,19 +7715,19 @@
         <v>3347865</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3334869</v>
+        <v>3334404</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3358062</v>
+        <v>3357283</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9905626561555519</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9867174586755945</v>
+        <v>0.9865799675466194</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9935796889056123</v>
+        <v>0.993349259068212</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3201</v>
@@ -7736,19 +7736,19 @@
         <v>3407095</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3384170</v>
+        <v>3385586</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3427387</v>
+        <v>3427227</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9646766067257486</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9581856507836909</v>
+        <v>0.9585865137178128</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9704221523251015</v>
+        <v>0.9703767682029634</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6387</v>
@@ -7757,19 +7757,19 @@
         <v>6754960</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6725392</v>
+        <v>6728466</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6776097</v>
+        <v>6780739</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9773348178801452</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9730567713283371</v>
+        <v>0.9735015492373231</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9803930224700869</v>
+        <v>0.9810646375191001</v>
       </c>
     </row>
     <row r="35">
